--- a/site/downloads/concorrencia_2026__unicamp.xlsx
+++ b/site/downloads/concorrencia_2026__unicamp.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP — Concorrência AMP 2025" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PROGRAMAS ACESSO DIRETO</t>
+          <t>INSTITUIÇÃO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>PROGRAMA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>CANDIDATOS</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>VAGAS DISPONÍVEIS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CONCORRÊNCIA</t>
         </is>
@@ -458,474 +463,579 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANESTESIOLOGIA</t>
+          <t>Associação Beneficente de Saúde do Noroeste do Paraná – NOROSPAR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>Residência: Anestesiologia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24,10</t>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43,5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CIRURGIA CARDIOVASCULAR</t>
+          <t>Associação Beneficente de Saúde do Noroeste do Paraná – NOROSPAR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Residência: Clínica Médica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29,5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CIRURGIA GERAL</t>
+          <t>Associação Beneficente de Saúde do Noroeste do Paraná – NOROSPAR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>Residência: Cirurgia Geral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40,25</t>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32,5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CLINICA MEDICA</t>
+          <t>Associação Beneficente de Saúde do Noroeste do Paraná – NOROSPAR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>Residência: Ginecologia e Obstetrícia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15,54</t>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DERMATOLOGIA</t>
+          <t>Associação Beneficente de Saúde do Noroeste do Paraná – NOROSPAR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>Residência: Medicina de Família e Comunidade</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>48,80</t>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9,5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DERMATOLOGIA – COMPROMISSO SOCIAL</t>
+          <t>Associação Beneficente de Saúde do Noroeste do Paraná – NOROSPAR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Residência: Ortopedia e Traumatologia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GENETICA MEDICA</t>
+          <t>Associação Beneficente de Saúde do Noroeste do Paraná – NOROSPAR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Residência: Pediatria</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>19,5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INFECTOLOGIA</t>
+          <t>Centro de Diabetes Curitiba</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>Residência: Endocrinologia Especialização</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7,80</t>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEDICINA DE EMERGENCIA</t>
+          <t>Centro de Estudos em Terapia Intensiva – CEPETI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>Residência: Medicina Intensiva</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8,43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MEDICINA DE FAMILIA E COMUNIDADE</t>
+          <t>Escola de Saúde Pública de São José dos Pinhais</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>Residência: Anestesiologia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MEDICINA DO TRABALHO</t>
+          <t>Escola de Saúde Pública de São José dos Pinhais</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>Residência: Cirurgia Geral</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MEDICINA INTENSIVA</t>
+          <t>Escola de Saúde Pública de São José dos Pinhais</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>Residência: Clínica Médica</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MEDICINA NUCLEAR</t>
+          <t>Escola de Saúde Pública de São José dos Pinhais</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Residência: Medicina de Família e Comunidade</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17,83</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MEDICINA PREVENTIVA E SOCIAL</t>
+          <t>Escola de Saúde Pública de São José dos Pinhais</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NEUROCIRURGIA</t>
+          <t>Escola de Saúde Pública de São José dos Pinhais</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>Residência: Pediatria</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>56,00</t>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20,67</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NEUROLOGIA</t>
+          <t>Escola de Saúde Pública de São José dos Pinhais</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>Residência: Psiquiatria</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33,14</t>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73,75</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OBSTETRICIA E GINECOLOGIA</t>
+          <t>Fundação de Saúde Itaiguapy</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>Residência: Anestesiologia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27,64</t>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32,5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>Fundação de Saúde Itaiguapy</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>Residência: Ginecologia e Obstetrícia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31,50</t>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22,5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORTOPEDIA E TRAUMATOLOGIA</t>
+          <t>Fundação de Saúde Itaiguapy</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20,57</t>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>Fundação de Saúde Itaiguapy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>Residência: Medicina Intensiva</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>52,00</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PATOLOGIA</t>
+          <t>Fundação de Saúde Itaiguapy</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>Residência: Cardiologia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PATOLOGIA CLINICA/MEDICINA LABORATORIAL</t>
+          <t>Fundação de Saúde Itaiguapy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Residência: Neonatologia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,95 +1045,5655 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0,5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PEDIATRIA</t>
+          <t>Fundação Municipal de Saúde de Ponta Grossa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>Residência: Medicina de Família e Comunidade</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13,19</t>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PSIQUIATRIA</t>
+          <t>Hospitais Universitários UEPG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>Residência: Anestesiologia</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43,00</t>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RADIOLOGIA E DIAGNOSTICO POR IMAGEM</t>
+          <t>Hospitais Universitários UEPG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>Residência: Cirurgia Geral</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>40,33</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RADIOTERAPIA</t>
+          <t>Hospitais Universitários UEPG</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Residência: Neurologia</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Residência: Otorrinolaringologia</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6,00</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>32,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hospitais Universitários UEPG</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Residência: Endoscopia</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hospital Adauto Botelho</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Residência: Psiquiatria</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hospital Cemil</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hospital Cemil</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hospital Cemil</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hospital Costantini</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Residência: Urologia</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>62,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Cardiovascular – Sigresidência</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica – Sigresidência</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>16,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hospital Cruz Vermelha</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Residência: Medicina de Emergência – Sigresidência</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hospital da Providência</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>16,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hospital da Providência</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hospital da Providência</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hospital da Providência</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hospital da Visão Oftalmocuritiba</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Residência: Oftalmologia</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>69,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hospital de Dermatologia Sanitária do Paraná</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Residência: Dermatologia</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>69,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hospital do Câncer – UOPECCAN Umuarama</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hospital do Câncer – UOPECCAN Umuarama</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>64,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hospital do Câncer – UOPECCAN Umuarama</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hospital do Câncer – UOPECCAN Umuarama</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hospital do Câncer de Cascavel – UOPECCAN Cascavel</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hospital do Câncer de Cascavel – UOPECCAN Cascavel</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Residência: Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hospital do Câncer de Londrina</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hospital do Câncer de Londrina</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Residência: Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hospital do Rocio</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>44,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hospital do Rocio</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Torácica</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hospital do Rocio</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Cardíaca</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hospital do Rocio</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hospital do Rocio</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Residência: Neonatologia</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hospital do Rocio</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Residência: Neurologia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>59,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>59,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Residência: Infectologia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Crânio-Maxilo-Facial</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Hospital do Trabalhador</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Residência: Neurocirurgia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hospital Dr. Anísio Figueiredo</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hospital Dr. Anísio Figueiredo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Residência: Medicina de Família e Comunidade</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>13,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hospital Dr. Anísio Figueiredo</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>37,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hospital Dr. Anísio Figueiredo</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hospital Dr. Anísio Figueiredo</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hospital Dr. Eulalino Ignácio de Andrade</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hospital Dr. Eulalino Ignácio de Andrade</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>28,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hospital Dr. Eulalino Ignácio de Andrade</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hospital Erasto Gaertner</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hospital Erasto Gaertner</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hospital Erasto Gaertner</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Residência: Hematologia e Hemoterapia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hospital Erasto Gaertner</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hospital Erasto Gaertner</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Residência: Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>7,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hospital Erasto Gaertner</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Residência: Oncologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hospital Erasto Gaertner</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Residência: Patologia</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hospital Erasto Gaertner</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Residência: Radioterapia</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Cardiovascular</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>48,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Residência: Neurocirurgia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Residência: Neurologia</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>16,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>27,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Residência: Nefrologia</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Hospital Evangélico de Londrina</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Residência: Urologia</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>16,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hospital Heidelberg</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Residência: Psiquiatria</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>54,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hospital IPO</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Residência: Otorrinolaringologia – Especialização</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hospital Memorial UNINGÁ</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>41,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hospital Memorial UNINGÁ</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>38,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Hospital Memorial UNINGÁ</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Hospital Memorial UNINGÁ</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Residência: Medicina de Família e Comunidade</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hospital Memorial UNINGÁ</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Residência: Angiorradiologia e Cirurgia Endovascular</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia do Aparelho Digestivo</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Torácica</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Residência: Endoscopia</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Residência: Gastroenterologia</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>18,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Residência: Mastologia</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Residência: Neonatologia</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Residência: Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Residência: Urologia</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>19,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>45,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>61,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Residência: Infectologia</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>6,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Residência: Neurologia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>42,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>44,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hospital Nossa Senhora das Graças</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hospital Regional do Litoral</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hospital Santa Brígida</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>55,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia do Aparelho Digestivo</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>8,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Residência: Nefrologia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>8,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Residência: Urologia</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>49,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Cardiovascular</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>13,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>78,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Residência: Dermatologia</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>83,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Residência: Oftalmologia</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>52,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>25,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Residência: Otorrinolaringologia</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Residência: Psiquiatria</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>97,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Hospital Santa Casa de Curitiba</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>44,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Hospital São Lucas de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Hospital São Lucas de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Hospital São Lucas de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>26,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>61,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente de Paulo</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente de Paulo</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente de Paulo</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>34,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente de Paulo</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>34,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente de Paulo</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>28,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente de Paulo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente de Paulo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Hospital São Vicente de Paulo</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Residência: Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Hospital Vita</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>23,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Hospital Vita</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Residência: Medicina de Emergência</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Hospital XV</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>22,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Instituto de Neurologia de Curitiba – INC</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Residência: Neurocirurgia</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>43,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Instituto de Neurologia de Curitiba – INC</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Residência: Neurologia</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Instituto de Neurologia de Curitiba – INC</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>44,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Instituto de Neurologia de Curitiba – INC</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Cardiovascular</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Instituto de Neurologia de Curitiba – INC</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>8,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Instituto de Neurologia de Curitiba – INC</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Instituto Nossa Senhora Aparecida</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>26,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Instituto Nossa Senhora Aparecida</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Cardiovascular</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Instituto Nossa Senhora Aparecida</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Instituto Nossa Senhora Aparecida</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Instituto Nossa Senhora Aparecida</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Residência: Medicina de Família e Comunidade</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Instituto Policlínica de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Instituto Policlínica de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Instituto Policlínica de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>21,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Instituto Policlínica de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>16,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Instituto Policlínica de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Instituto Policlínica de Pato Branco</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>13,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>33,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Cardiovascular</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>26,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Residência: Neurocirurgia</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>29,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Residência: Neurologia</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>29,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>17,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>23,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>4,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Residência: Endoscopia</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Residência: Gastroenterologia</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Irmandade da Santa Casa de Londrina</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Residência: Nefrologia</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Maternidade e Cirurgia Nossa Senhora do Rocio</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral – Capacitação</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>6,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Maternidade e Cirurgia Nossa Senhora do Rocio</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Vascular – Capacitação</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Maternidade e Cirurgia Nossa Senhora do Rocio</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Cardíaca – Capacitação</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Maternidade e Cirurgia Nossa Senhora do Rocio</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia – Capacitação</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Médicos de Olhos</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Residência: Oftalmologia</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>83,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Residência: Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>22,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Residência: Neurocirurgia</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Residência: Neurologia</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Santa Casa de Ponta Grossa</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Residência: Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Centro-Oeste (UNICENTRO)</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>22,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Campus de Francisco Beltrão</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>27,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Campus de Francisco Beltrão</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>19,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Campus de Francisco Beltrão</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>17,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Residência: Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>23,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>26,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Residência: Clínica Médica</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>22,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Residência: Dermatologia</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Residência: Medicina de Emergência</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Residência: Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Residência: Neurocirurgia</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Residência: Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>26,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Residência: Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>19,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Residência: Pediatria</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>20,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Residência: Cardiologia</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Universidade Estadual do Oeste do Paraná – UNIOESTE Cascavel</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Residência: Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
